--- a/Code/Results/Cases/Case_5_235/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_235/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7901642029570439</v>
+        <v>0.4365890793926042</v>
       </c>
       <c r="C2">
-        <v>0.09273228316881443</v>
+        <v>0.02298481258995366</v>
       </c>
       <c r="D2">
-        <v>0.4008654923834456</v>
+        <v>0.2179683731171878</v>
       </c>
       <c r="E2">
-        <v>0.3317819513779199</v>
+        <v>0.1375878983431491</v>
       </c>
       <c r="F2">
-        <v>6.706568424425029</v>
+        <v>3.778795530854552</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7882347474318578</v>
+        <v>0.3818434170170804</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5666188979596143</v>
+        <v>0.2546306249913002</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6791560981325802</v>
+        <v>0.4149568748447621</v>
       </c>
       <c r="C3">
-        <v>0.07872172427084934</v>
+        <v>0.02054100797720793</v>
       </c>
       <c r="D3">
-        <v>0.3619561799470006</v>
+        <v>0.2057779472137469</v>
       </c>
       <c r="E3">
-        <v>0.2866611255122322</v>
+        <v>0.1255670726398606</v>
       </c>
       <c r="F3">
-        <v>5.957097198321719</v>
+        <v>3.557895458523234</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.674255134073988</v>
+        <v>0.3602888624461258</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4874593897445223</v>
+        <v>0.2359885170281188</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6127906166307469</v>
+        <v>0.4021637306788364</v>
       </c>
       <c r="C4">
-        <v>0.07039593696334379</v>
+        <v>0.01908389746481021</v>
       </c>
       <c r="D4">
-        <v>0.3383894155942073</v>
+        <v>0.1982317192728829</v>
       </c>
       <c r="E4">
-        <v>0.2595439729616871</v>
+        <v>0.1182492430580666</v>
       </c>
       <c r="F4">
-        <v>5.504444855279218</v>
+        <v>3.422424573983477</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6061989687196672</v>
+        <v>0.3475414940864994</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4400166137278418</v>
+        <v>0.2247481408713625</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5861401069221586</v>
+        <v>0.3970726832780826</v>
       </c>
       <c r="C5">
-        <v>0.06706200002195573</v>
+        <v>0.0185008000308855</v>
       </c>
       <c r="D5">
-        <v>0.3288509242331514</v>
+        <v>0.1951407180492737</v>
       </c>
       <c r="E5">
-        <v>0.2486201674447912</v>
+        <v>0.115282654715628</v>
       </c>
       <c r="F5">
-        <v>5.321590231673781</v>
+        <v>3.367255022453151</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5788864016667503</v>
+        <v>0.3424684131767606</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4209355370158008</v>
+        <v>0.2202187676389755</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5817370342771255</v>
+        <v>0.3962346820408129</v>
       </c>
       <c r="C6">
-        <v>0.06651166620438431</v>
+        <v>0.01840461606803956</v>
       </c>
       <c r="D6">
-        <v>0.3272705520661106</v>
+        <v>0.1946264891468132</v>
       </c>
       <c r="E6">
-        <v>0.2468133504255619</v>
+        <v>0.1147909799882783</v>
       </c>
       <c r="F6">
-        <v>5.291316365057924</v>
+        <v>3.358096186686737</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5743748365709678</v>
+        <v>0.3416333476346836</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4177812800105158</v>
+        <v>0.2194697414104283</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6124296750570579</v>
+        <v>0.4020945769551361</v>
       </c>
       <c r="C7">
-        <v>0.0703507492600508</v>
+        <v>0.01907599063446952</v>
       </c>
       <c r="D7">
-        <v>0.3382605327931572</v>
+        <v>0.1981900977192055</v>
       </c>
       <c r="E7">
-        <v>0.2593961642190479</v>
+        <v>0.1182091723704488</v>
       </c>
       <c r="F7">
-        <v>5.501972677390171</v>
+        <v>3.421680399169134</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6058289978437017</v>
+        <v>0.3474725857254555</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4397583082540564</v>
+        <v>0.224686849777008</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.751480127556249</v>
+        <v>0.4290283276575906</v>
       </c>
       <c r="C8">
-        <v>0.08783721094748387</v>
+        <v>0.02213304509355396</v>
       </c>
       <c r="D8">
-        <v>0.3873721312494354</v>
+        <v>0.213777555029921</v>
       </c>
       <c r="E8">
-        <v>0.3160891193175814</v>
+        <v>0.1334298213664411</v>
       </c>
       <c r="F8">
-        <v>6.446407155661007</v>
+        <v>3.702592361287145</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7484940242618023</v>
+        <v>0.374309707539453</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5390584213333725</v>
+        <v>0.2481597004513532</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.041294161029839</v>
+        <v>0.4857633054940038</v>
       </c>
       <c r="C9">
-        <v>0.1248714718382899</v>
+        <v>0.02848278974884977</v>
       </c>
       <c r="D9">
-        <v>0.4870672509084102</v>
+        <v>0.2438798400196021</v>
       </c>
       <c r="E9">
-        <v>0.4329915596586176</v>
+        <v>0.1637951062884753</v>
       </c>
       <c r="F9">
-        <v>8.372696682139548</v>
+        <v>4.255001867998317</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.046805806772966</v>
+        <v>0.4308494698541949</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7450282999725957</v>
+        <v>0.2958547618691867</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.26929540699183</v>
+        <v>0.529892290527016</v>
       </c>
       <c r="C10">
-        <v>0.1546340545216651</v>
+        <v>0.03337945442947898</v>
       </c>
       <c r="D10">
-        <v>0.5636729932375601</v>
+        <v>0.2657439638990979</v>
       </c>
       <c r="E10">
-        <v>0.5240783293500471</v>
+        <v>0.1864469207310293</v>
       </c>
       <c r="F10">
-        <v>9.856255499334821</v>
+        <v>4.662184838814369</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.28247507770422</v>
+        <v>0.4748443858160272</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.906448167155304</v>
+        <v>0.3319579783198847</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.377520631707711</v>
+        <v>0.550511754085079</v>
       </c>
       <c r="C11">
-        <v>0.168965574888972</v>
+        <v>0.03566069354941703</v>
       </c>
       <c r="D11">
-        <v>0.5995920664556422</v>
+        <v>0.2756426529661553</v>
       </c>
       <c r="E11">
-        <v>0.5670989651914198</v>
+        <v>0.1968321778963613</v>
       </c>
       <c r="F11">
-        <v>10.55205455458429</v>
+        <v>4.847798002161426</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.394652851278181</v>
+        <v>0.4954076795043534</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9829369418972007</v>
+        <v>0.348623269108387</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.419272228266919</v>
+        <v>0.5583991422751353</v>
       </c>
       <c r="C12">
-        <v>0.1745303049069804</v>
+        <v>0.03653253243938082</v>
       </c>
       <c r="D12">
-        <v>0.6133809150485945</v>
+        <v>0.279384733297519</v>
       </c>
       <c r="E12">
-        <v>0.5836626836383587</v>
+        <v>0.2007768754031574</v>
       </c>
       <c r="F12">
-        <v>10.81913725360181</v>
+        <v>4.918146339120767</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.437983728294398</v>
+        <v>0.5032747244793541</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.012426656229486</v>
+        <v>0.3549695319699424</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.41024393776388</v>
+        <v>0.5566969134645774</v>
       </c>
       <c r="C13">
-        <v>0.1733252954377633</v>
+        <v>0.03634440713214815</v>
       </c>
       <c r="D13">
-        <v>0.6104023389189024</v>
+        <v>0.278579083577597</v>
       </c>
       <c r="E13">
-        <v>0.5800824688699038</v>
+        <v>0.1999267728851279</v>
       </c>
       <c r="F13">
-        <v>10.76144580319738</v>
+        <v>4.902992779721728</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.428611359098767</v>
+        <v>0.5015768319548215</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.006050659189846</v>
+        <v>0.353601161263839</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.380939386271933</v>
+        <v>0.5511590609696952</v>
       </c>
       <c r="C14">
-        <v>0.1694204786771252</v>
+        <v>0.03573225877359221</v>
       </c>
       <c r="D14">
-        <v>0.6007225267359217</v>
+        <v>0.275950640438964</v>
       </c>
       <c r="E14">
-        <v>0.5684559237162858</v>
+        <v>0.1971564671884636</v>
       </c>
       <c r="F14">
-        <v>10.57395178689666</v>
+        <v>4.853584354662019</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.398199779651407</v>
+        <v>0.4960532928093357</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9853520174958419</v>
+        <v>0.3491446647836014</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.363093571924196</v>
+        <v>0.5477773128519061</v>
       </c>
       <c r="C15">
-        <v>0.1670473701654487</v>
+        <v>0.03535834759320267</v>
       </c>
       <c r="D15">
-        <v>0.5948187916616519</v>
+        <v>0.2743398319633457</v>
       </c>
       <c r="E15">
-        <v>0.5613713002867584</v>
+        <v>0.1954611531455583</v>
       </c>
       <c r="F15">
-        <v>10.4595939742473</v>
+        <v>4.823328332074823</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.379687143196861</v>
+        <v>0.4926804397611591</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.97274464694177</v>
+        <v>0.3464195738429936</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.262323240379004</v>
+        <v>0.5285558009487943</v>
       </c>
       <c r="C16">
-        <v>0.1537153431465441</v>
+        <v>0.03323147307585828</v>
       </c>
       <c r="D16">
-        <v>0.561349863836341</v>
+        <v>0.2650961481469096</v>
       </c>
       <c r="E16">
-        <v>0.5213023953751943</v>
+        <v>0.1857698805715913</v>
       </c>
       <c r="F16">
-        <v>9.811252875479028</v>
+        <v>4.650062769241231</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.275255231848746</v>
+        <v>0.4735116839949001</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9015179747151407</v>
+        <v>0.3308737879318286</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.201738519691816</v>
+        <v>0.5169042247267441</v>
       </c>
       <c r="C17">
-        <v>0.145755233659699</v>
+        <v>0.03194064625463966</v>
       </c>
       <c r="D17">
-        <v>0.5411140742368445</v>
+        <v>0.2594136443578634</v>
       </c>
       <c r="E17">
-        <v>0.4971570940464858</v>
+        <v>0.1798455863789741</v>
       </c>
       <c r="F17">
-        <v>9.419268356177582</v>
+        <v>4.543872093339985</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.212553554055035</v>
+        <v>0.4618938719457901</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8586625924956124</v>
+        <v>0.3213993759142681</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.167307695880282</v>
+        <v>0.5102537874047925</v>
       </c>
       <c r="C18">
-        <v>0.1412497403040902</v>
+        <v>0.03120323769638844</v>
       </c>
       <c r="D18">
-        <v>0.529573522291912</v>
+        <v>0.2561407270969767</v>
       </c>
       <c r="E18">
-        <v>0.4834154634566872</v>
+        <v>0.1764456730250075</v>
       </c>
       <c r="F18">
-        <v>9.195738345148129</v>
+        <v>4.482829796502614</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.17694772617881</v>
+        <v>0.4552632942940136</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8342953225026122</v>
+        <v>0.3159726564784719</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.155718050266728</v>
+        <v>0.5080108378278112</v>
       </c>
       <c r="C19">
-        <v>0.1397361251877101</v>
+        <v>0.03095442180782015</v>
       </c>
       <c r="D19">
-        <v>0.5256820822577311</v>
+        <v>0.255031787613035</v>
       </c>
       <c r="E19">
-        <v>0.4787866226095829</v>
+        <v>0.1752958111805398</v>
       </c>
       <c r="F19">
-        <v>9.120369646937462</v>
+        <v>4.462167901098695</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.164967126607962</v>
+        <v>0.4530271372379389</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8260910319098329</v>
+        <v>0.31413914172321</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.208144003971256</v>
+        <v>0.5181392453341971</v>
       </c>
       <c r="C20">
-        <v>0.1465948909781929</v>
+        <v>0.03207753340333852</v>
       </c>
       <c r="D20">
-        <v>0.5432577856746263</v>
+        <v>0.2600190179680624</v>
       </c>
       <c r="E20">
-        <v>0.4997119782424662</v>
+        <v>0.1804754498020884</v>
       </c>
       <c r="F20">
-        <v>9.460792119385104</v>
+        <v>4.55517253028242</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.219179876161718</v>
+        <v>0.4631252511343291</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8631948579836859</v>
+        <v>0.322405587529957</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.389524911867142</v>
+        <v>0.5527835047027168</v>
       </c>
       <c r="C21">
-        <v>0.1705634718641988</v>
+        <v>0.03591184284947246</v>
       </c>
       <c r="D21">
-        <v>0.6035603565292149</v>
+        <v>0.2767228460880062</v>
       </c>
       <c r="E21">
-        <v>0.5718631267119818</v>
+        <v>0.1979698435059021</v>
       </c>
       <c r="F21">
-        <v>10.62892050942503</v>
+        <v>4.86809511623585</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.407108086464859</v>
+        <v>0.4976735053244568</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9914167116877337</v>
+        <v>0.3504526771804279</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.512621140427058</v>
+        <v>0.5758878521772317</v>
       </c>
       <c r="C22">
-        <v>0.1870449815027371</v>
+        <v>0.03846444013440475</v>
       </c>
       <c r="D22">
-        <v>0.6440811222646232</v>
+        <v>0.2876030434820791</v>
       </c>
       <c r="E22">
-        <v>0.6206340780184121</v>
+        <v>0.2094737290249071</v>
       </c>
       <c r="F22">
-        <v>11.4136774348251</v>
+        <v>5.072964301113245</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.534973917373236</v>
+        <v>0.5207206222674472</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.078327681013405</v>
+        <v>0.3689902107869614</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.446460564260548</v>
+        <v>0.5635140291905429</v>
       </c>
       <c r="C23">
-        <v>0.1781648321567104</v>
+        <v>0.03709771577386789</v>
       </c>
       <c r="D23">
-        <v>0.6223406198620296</v>
+        <v>0.2817992779399958</v>
       </c>
       <c r="E23">
-        <v>0.5944394711528105</v>
+        <v>0.2033273229359907</v>
       </c>
       <c r="F23">
-        <v>10.99266817814083</v>
+        <v>4.963587331918745</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.466216849039455</v>
+        <v>0.5083767616614523</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.031625128985169</v>
+        <v>0.3590771875058891</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.205246847076324</v>
+        <v>0.5175807424234335</v>
       </c>
       <c r="C24">
-        <v>0.1462150628714198</v>
+        <v>0.03201563208870084</v>
       </c>
       <c r="D24">
-        <v>0.5422883256419482</v>
+        <v>0.259745347190659</v>
       </c>
       <c r="E24">
-        <v>0.4985564828634139</v>
+        <v>0.1801906697584883</v>
       </c>
       <c r="F24">
-        <v>9.442013578426469</v>
+        <v>4.550063577809425</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.216182748620952</v>
+        <v>0.4625683931307947</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8611449833485239</v>
+        <v>0.321950616249822</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9606160564557911</v>
+        <v>0.4699896866076756</v>
       </c>
       <c r="C25">
-        <v>0.1144755486241991</v>
+        <v>0.02672546918509511</v>
       </c>
       <c r="D25">
-        <v>0.459610425025673</v>
+        <v>0.2357829018124562</v>
       </c>
       <c r="E25">
-        <v>0.4005906089498268</v>
+        <v>0.1555223178531691</v>
       </c>
       <c r="F25">
-        <v>7.841429025357797</v>
+        <v>4.105355574994064</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9636247335802182</v>
+        <v>0.4151279556318457</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6877959755430183</v>
+        <v>0.2827689630747798</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_235/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_235/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4365890793926042</v>
+        <v>0.7901642029571576</v>
       </c>
       <c r="C2">
-        <v>0.02298481258995366</v>
+        <v>0.0927322831687718</v>
       </c>
       <c r="D2">
-        <v>0.2179683731171878</v>
+        <v>0.4008654923833177</v>
       </c>
       <c r="E2">
-        <v>0.1375878983431491</v>
+        <v>0.3317819513778701</v>
       </c>
       <c r="F2">
-        <v>3.778795530854552</v>
+        <v>6.706568424425143</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3818434170170804</v>
+        <v>0.788234747431801</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2546306249913002</v>
+        <v>0.5666188979596356</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4149568748447621</v>
+        <v>0.6791560981326086</v>
       </c>
       <c r="C3">
-        <v>0.02054100797720793</v>
+        <v>0.07872172427091328</v>
       </c>
       <c r="D3">
-        <v>0.2057779472137469</v>
+        <v>0.3619561799469722</v>
       </c>
       <c r="E3">
-        <v>0.1255670726398606</v>
+        <v>0.286661125512147</v>
       </c>
       <c r="F3">
-        <v>3.557895458523234</v>
+        <v>5.957097198321719</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3602888624461258</v>
+        <v>0.6742551340740448</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2359885170281188</v>
+        <v>0.487459389744501</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4021637306788364</v>
+        <v>0.6127906166305479</v>
       </c>
       <c r="C4">
-        <v>0.01908389746481021</v>
+        <v>0.07039593696381274</v>
       </c>
       <c r="D4">
-        <v>0.1982317192728829</v>
+        <v>0.3383894155940084</v>
       </c>
       <c r="E4">
-        <v>0.1182492430580666</v>
+        <v>0.2595439729616231</v>
       </c>
       <c r="F4">
-        <v>3.422424573983477</v>
+        <v>5.504444855279218</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3475414940864994</v>
+        <v>0.6061989687197098</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2247481408713625</v>
+        <v>0.4400166137278276</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3970726832780826</v>
+        <v>0.5861401069222438</v>
       </c>
       <c r="C5">
-        <v>0.0185008000308855</v>
+        <v>0.06706200002214047</v>
       </c>
       <c r="D5">
-        <v>0.1951407180492737</v>
+        <v>0.3288509242327393</v>
       </c>
       <c r="E5">
-        <v>0.115282654715628</v>
+        <v>0.2486201674446846</v>
       </c>
       <c r="F5">
-        <v>3.367255022453151</v>
+        <v>5.321590231673753</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3424684131767606</v>
+        <v>0.5788864016666935</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2202187676389755</v>
+        <v>0.4209355370157866</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3962346820408129</v>
+        <v>0.5817370342769834</v>
       </c>
       <c r="C6">
-        <v>0.01840461606803956</v>
+        <v>0.06651166620470406</v>
       </c>
       <c r="D6">
-        <v>0.1946264891468132</v>
+        <v>0.3272705520664658</v>
       </c>
       <c r="E6">
-        <v>0.1147909799882783</v>
+        <v>0.2468133504255405</v>
       </c>
       <c r="F6">
-        <v>3.358096186686737</v>
+        <v>5.291316365057952</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3416333476346836</v>
+        <v>0.5743748365709251</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2194697414104283</v>
+        <v>0.4177812800105087</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4020945769551361</v>
+        <v>0.6124296750570579</v>
       </c>
       <c r="C7">
-        <v>0.01907599063446952</v>
+        <v>0.07035074925980211</v>
       </c>
       <c r="D7">
-        <v>0.1981900977192055</v>
+        <v>0.3382605327930008</v>
       </c>
       <c r="E7">
-        <v>0.1182091723704488</v>
+        <v>0.2593961642190692</v>
       </c>
       <c r="F7">
-        <v>3.421680399169134</v>
+        <v>5.501972677390171</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3474725857254555</v>
+        <v>0.6058289978436733</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.224686849777008</v>
+        <v>0.4397583082540635</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4290283276575906</v>
+        <v>0.7514801275561922</v>
       </c>
       <c r="C8">
-        <v>0.02213304509355396</v>
+        <v>0.08783721094705754</v>
       </c>
       <c r="D8">
-        <v>0.213777555029921</v>
+        <v>0.3873721312492506</v>
       </c>
       <c r="E8">
-        <v>0.1334298213664411</v>
+        <v>0.3160891193176241</v>
       </c>
       <c r="F8">
-        <v>3.702592361287145</v>
+        <v>6.446407155660978</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.374309707539453</v>
+        <v>0.7484940242617171</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2481597004513532</v>
+        <v>0.5390584213333725</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4857633054940038</v>
+        <v>1.041294161029953</v>
       </c>
       <c r="C9">
-        <v>0.02848278974884977</v>
+        <v>0.1248714718382899</v>
       </c>
       <c r="D9">
-        <v>0.2438798400196021</v>
+        <v>0.4870672509086944</v>
       </c>
       <c r="E9">
-        <v>0.1637951062884753</v>
+        <v>0.4329915596586247</v>
       </c>
       <c r="F9">
-        <v>4.255001867998317</v>
+        <v>8.372696682139491</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4308494698541949</v>
+        <v>1.046805806772966</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2958547618691867</v>
+        <v>0.7450282999725886</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.529892290527016</v>
+        <v>1.269295406991972</v>
       </c>
       <c r="C10">
-        <v>0.03337945442947898</v>
+        <v>0.1546340545230578</v>
       </c>
       <c r="D10">
-        <v>0.2657439638990979</v>
+        <v>0.5636729932372191</v>
       </c>
       <c r="E10">
-        <v>0.1864469207310293</v>
+        <v>0.52407832935004</v>
       </c>
       <c r="F10">
-        <v>4.662184838814369</v>
+        <v>9.856255499334992</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4748443858160272</v>
+        <v>1.28247507770422</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3319579783198847</v>
+        <v>0.9064481671553182</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.550511754085079</v>
+        <v>1.377520631708137</v>
       </c>
       <c r="C11">
-        <v>0.03566069354941703</v>
+        <v>0.1689655748885741</v>
       </c>
       <c r="D11">
-        <v>0.2756426529661553</v>
+        <v>0.5995920664561254</v>
       </c>
       <c r="E11">
-        <v>0.1968321778963613</v>
+        <v>0.5670989651914127</v>
       </c>
       <c r="F11">
-        <v>4.847798002161426</v>
+        <v>10.55205455458423</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4954076795043534</v>
+        <v>1.394652851278266</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.348623269108387</v>
+        <v>0.982936941897222</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5583991422751353</v>
+        <v>1.419272228267289</v>
       </c>
       <c r="C12">
-        <v>0.03653253243938082</v>
+        <v>0.1745303049079325</v>
       </c>
       <c r="D12">
-        <v>0.279384733297519</v>
+        <v>0.6133809150487934</v>
       </c>
       <c r="E12">
-        <v>0.2007768754031574</v>
+        <v>0.583662683638174</v>
       </c>
       <c r="F12">
-        <v>4.918146339120767</v>
+        <v>10.81913725360187</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5032747244793541</v>
+        <v>1.437983728294256</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3549695319699424</v>
+        <v>1.012426656229515</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5566969134645774</v>
+        <v>1.410243937763511</v>
       </c>
       <c r="C13">
-        <v>0.03634440713214815</v>
+        <v>0.1733252954368538</v>
       </c>
       <c r="D13">
-        <v>0.278579083577597</v>
+        <v>0.6104023389189592</v>
       </c>
       <c r="E13">
-        <v>0.1999267728851279</v>
+        <v>0.5800824688698611</v>
       </c>
       <c r="F13">
-        <v>4.902992779721728</v>
+        <v>10.76144580319715</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5015768319548215</v>
+        <v>1.428611359098767</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.353601161263839</v>
+        <v>1.006050659189825</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5511590609696952</v>
+        <v>1.380939386271564</v>
       </c>
       <c r="C14">
-        <v>0.03573225877359221</v>
+        <v>0.1694204786766846</v>
       </c>
       <c r="D14">
-        <v>0.275950640438964</v>
+        <v>0.6007225267356944</v>
       </c>
       <c r="E14">
-        <v>0.1971564671884636</v>
+        <v>0.5684559237163143</v>
       </c>
       <c r="F14">
-        <v>4.853584354662019</v>
+        <v>10.5739517868966</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4960532928093357</v>
+        <v>1.398199779651435</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3491446647836014</v>
+        <v>0.9853520174958632</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5477773128519061</v>
+        <v>1.363093571923685</v>
       </c>
       <c r="C15">
-        <v>0.03535834759320267</v>
+        <v>0.1670473701650224</v>
       </c>
       <c r="D15">
-        <v>0.2743398319633457</v>
+        <v>0.5948187916611687</v>
       </c>
       <c r="E15">
-        <v>0.1954611531455583</v>
+        <v>0.5613713002870142</v>
       </c>
       <c r="F15">
-        <v>4.823328332074823</v>
+        <v>10.4595939742473</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4926804397611591</v>
+        <v>1.379687143196861</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3464195738429936</v>
+        <v>0.9727446469417487</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5285558009487943</v>
+        <v>1.262323240379061</v>
       </c>
       <c r="C16">
-        <v>0.03323147307585828</v>
+        <v>0.1537153431466578</v>
       </c>
       <c r="D16">
-        <v>0.2650961481469096</v>
+        <v>0.5613498638362842</v>
       </c>
       <c r="E16">
-        <v>0.1857698805715913</v>
+        <v>0.5213023953752725</v>
       </c>
       <c r="F16">
-        <v>4.650062769241231</v>
+        <v>9.8112528754788</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4735116839949001</v>
+        <v>1.275255231848547</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3308737879318286</v>
+        <v>0.9015179747151478</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5169042247267441</v>
+        <v>1.201738519691844</v>
       </c>
       <c r="C17">
-        <v>0.03194064625463966</v>
+        <v>0.1457552336596706</v>
       </c>
       <c r="D17">
-        <v>0.2594136443578634</v>
+        <v>0.5411140742366172</v>
       </c>
       <c r="E17">
-        <v>0.1798455863789741</v>
+        <v>0.4971570940466066</v>
       </c>
       <c r="F17">
-        <v>4.543872093339985</v>
+        <v>9.419268356177582</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4618938719457901</v>
+        <v>1.212553554054921</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3213993759142681</v>
+        <v>0.8586625924956337</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5102537874047925</v>
+        <v>1.167307695880282</v>
       </c>
       <c r="C18">
-        <v>0.03120323769638844</v>
+        <v>0.141249740304076</v>
       </c>
       <c r="D18">
-        <v>0.2561407270969767</v>
+        <v>0.5295735222920825</v>
       </c>
       <c r="E18">
-        <v>0.1764456730250075</v>
+        <v>0.483415463456744</v>
       </c>
       <c r="F18">
-        <v>4.482829796502614</v>
+        <v>9.195738345148101</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4552632942940136</v>
+        <v>1.17694772617881</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3159726564784719</v>
+        <v>0.8342953225026335</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5080108378278112</v>
+        <v>1.155718050266756</v>
       </c>
       <c r="C19">
-        <v>0.03095442180782015</v>
+        <v>0.1397361251880511</v>
       </c>
       <c r="D19">
-        <v>0.255031787613035</v>
+        <v>0.5256820822580721</v>
       </c>
       <c r="E19">
-        <v>0.1752958111805398</v>
+        <v>0.47878662260959</v>
       </c>
       <c r="F19">
-        <v>4.462167901098695</v>
+        <v>9.120369646937661</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4530271372379389</v>
+        <v>1.16496712660782</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.31413914172321</v>
+        <v>0.8260910319098471</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5181392453341971</v>
+        <v>1.208144003971057</v>
       </c>
       <c r="C20">
-        <v>0.03207753340333852</v>
+        <v>0.1465948909781503</v>
       </c>
       <c r="D20">
-        <v>0.2600190179680624</v>
+        <v>0.5432577856748537</v>
       </c>
       <c r="E20">
-        <v>0.1804754498020884</v>
+        <v>0.4997119782423596</v>
       </c>
       <c r="F20">
-        <v>4.55517253028242</v>
+        <v>9.460792119385189</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4631252511343291</v>
+        <v>1.219179876161689</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.322405587529957</v>
+        <v>0.8631948579836717</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5527835047027168</v>
+        <v>1.3895249118668</v>
       </c>
       <c r="C21">
-        <v>0.03591184284947246</v>
+        <v>0.1705634718646252</v>
       </c>
       <c r="D21">
-        <v>0.2767228460880062</v>
+        <v>0.6035603565291581</v>
       </c>
       <c r="E21">
-        <v>0.1979698435059021</v>
+        <v>0.5718631267120386</v>
       </c>
       <c r="F21">
-        <v>4.86809511623585</v>
+        <v>10.6289205094252</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4976735053244568</v>
+        <v>1.40710808646503</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3504526771804279</v>
+        <v>0.9914167116877763</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5758878521772317</v>
+        <v>1.512621140427456</v>
       </c>
       <c r="C22">
-        <v>0.03846444013440475</v>
+        <v>0.1870449815026802</v>
       </c>
       <c r="D22">
-        <v>0.2876030434820791</v>
+        <v>0.6440811222648222</v>
       </c>
       <c r="E22">
-        <v>0.2094737290249071</v>
+        <v>0.6206340780183837</v>
       </c>
       <c r="F22">
-        <v>5.072964301113245</v>
+        <v>11.41367743482522</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5207206222674472</v>
+        <v>1.534973917373208</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3689902107869614</v>
+        <v>1.078327681013356</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5635140291905429</v>
+        <v>1.44646056426123</v>
       </c>
       <c r="C23">
-        <v>0.03709771577386789</v>
+        <v>0.1781648321563694</v>
       </c>
       <c r="D23">
-        <v>0.2817992779399958</v>
+        <v>0.622340619861717</v>
       </c>
       <c r="E23">
-        <v>0.2033273229359907</v>
+        <v>0.5944394711527394</v>
       </c>
       <c r="F23">
-        <v>4.963587331918745</v>
+        <v>10.99266817814066</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5083767616614523</v>
+        <v>1.466216849039341</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3590771875058891</v>
+        <v>1.031625128985205</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5175807424234335</v>
+        <v>1.205246847076069</v>
       </c>
       <c r="C24">
-        <v>0.03201563208870084</v>
+        <v>0.1462150628714056</v>
       </c>
       <c r="D24">
-        <v>0.259745347190659</v>
+        <v>0.542288325642204</v>
       </c>
       <c r="E24">
-        <v>0.1801906697584883</v>
+        <v>0.4985564828634068</v>
       </c>
       <c r="F24">
-        <v>4.550063577809425</v>
+        <v>9.442013578426554</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4625683931307947</v>
+        <v>1.216182748620923</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.321950616249822</v>
+        <v>0.8611449833485167</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4699896866076756</v>
+        <v>0.9606160564560753</v>
       </c>
       <c r="C25">
-        <v>0.02672546918509511</v>
+        <v>0.1144755486237159</v>
       </c>
       <c r="D25">
-        <v>0.2357829018124562</v>
+        <v>0.4596104250260709</v>
       </c>
       <c r="E25">
-        <v>0.1555223178531691</v>
+        <v>0.4005906089499121</v>
       </c>
       <c r="F25">
-        <v>4.105355574994064</v>
+        <v>7.841429025357883</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4151279556318457</v>
+        <v>0.9636247335801613</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2827689630747798</v>
+        <v>0.6877959755430325</v>
       </c>
       <c r="N25">
         <v>0</v>
